--- a/biology/Botanique/Tserkvas_en_bois_de_la_région_des_Carpates_en_Pologne_et_en_Ukraine/Tserkvas_en_bois_de_la_région_des_Carpates_en_Pologne_et_en_Ukraine.xlsx
+++ b/biology/Botanique/Tserkvas_en_bois_de_la_région_des_Carpates_en_Pologne_et_en_Ukraine/Tserkvas_en_bois_de_la_région_des_Carpates_en_Pologne_et_en_Ukraine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tserkvas_en_bois_de_la_r%C3%A9gion_des_Carpates_en_Pologne_et_en_Ukraine</t>
+          <t>Tserkvas_en_bois_de_la_région_des_Carpates_en_Pologne_et_en_Ukraine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Tserkvas en bois de la région des Carpates en Pologne et en Ukraine sont un ensemble de 16 églises en bois (Церква : tserkva signifie « église » en ukrainien) greco-catholiques ou orthodoxes situées dans le nord des Carpates, correspondant au sud de la Pologne et à l'ouest de l'Ukraine, et inscrites sous ce nom au patrimoine mondial de l'UNESCO en 2013[1]. Elles ont été construites ou reconstruites entre le XVIe et le XIXe siècle. De telles églises en bois, matériau localement abondant, sont en fait typiques de la chaîne des Carpates non seulement en Pologne et en Ukraine, mais aussi en Slovaquie et en Roumanie. Elles ont été inscrites, en ordre dispersé, au patrimoine mondial de l'UNESCO, en 1999 pour la Roumanie[2], en 2003 pour la Pologne[3] et en 2008 en pour la Slovaquie[4].
+Les Tserkvas en bois de la région des Carpates en Pologne et en Ukraine sont un ensemble de 16 églises en bois (Церква : tserkva signifie « église » en ukrainien) greco-catholiques ou orthodoxes situées dans le nord des Carpates, correspondant au sud de la Pologne et à l'ouest de l'Ukraine, et inscrites sous ce nom au patrimoine mondial de l'UNESCO en 2013. Elles ont été construites ou reconstruites entre le XVIe et le XIXe siècle. De telles églises en bois, matériau localement abondant, sont en fait typiques de la chaîne des Carpates non seulement en Pologne et en Ukraine, mais aussi en Slovaquie et en Roumanie. Elles ont été inscrites, en ordre dispersé, au patrimoine mondial de l'UNESCO, en 1999 pour la Roumanie, en 2003 pour la Pologne et en 2008 en pour la Slovaquie.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tserkvas_en_bois_de_la_r%C3%A9gion_des_Carpates_en_Pologne_et_en_Ukraine</t>
+          <t>Tserkvas_en_bois_de_la_région_des_Carpates_en_Pologne_et_en_Ukraine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
